--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\2022Fall\Project Experiment\Text\TextWarehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D73A6C8-709C-41DD-BC5B-BFC754679744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E622331-A04C-49D7-BE67-BC2D66E52BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="1632" windowWidth="10668" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
